--- a/data/US_data.xlsx
+++ b/data/US_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obuli\Documents\nss\capstone\capstone\nss_capstone\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A03489-4096-413B-9280-7F6E0D33D268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E2B075-E983-46DD-9D94-EEE7DBFD08F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="1" activeTab="1" xr2:uid="{7BBDA424-D9B7-464F-8931-F6A9363E9E3B}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Consumer price index" sheetId="11" r:id="rId3"/>
     <sheet name="commodity_Price" sheetId="14" r:id="rId4"/>
     <sheet name="House_price" sheetId="15" r:id="rId5"/>
+    <sheet name="school_score" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="251">
   <si>
     <t>State</t>
   </si>
@@ -478,6 +479,321 @@
   </si>
   <si>
     <t>House_price</t>
+  </si>
+  <si>
+    <t>Overall Rank </t>
+  </si>
+  <si>
+    <t>Total Score </t>
+  </si>
+  <si>
+    <t>Quality Rank </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alabama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaska </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">California </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecticut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delaware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">District of Columbia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawaii </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idaho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massachusetts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mississippi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missouri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebraska </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Hampshire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Jersey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Dakota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pennsylvania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhode Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Carolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Dakota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vermont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Virginia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisconsin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyoming </t>
+  </si>
+  <si>
+    <t>Alabama_x000D_</t>
+  </si>
+  <si>
+    <t>Alaska_x000D_</t>
+  </si>
+  <si>
+    <t>Arizona_x000D_</t>
+  </si>
+  <si>
+    <t>Arkansas_x000D_</t>
+  </si>
+  <si>
+    <t>California_x000D_</t>
+  </si>
+  <si>
+    <t>Colorado_x000D_</t>
+  </si>
+  <si>
+    <t>Connecticut_x000D_</t>
+  </si>
+  <si>
+    <t>Delaware_x000D_</t>
+  </si>
+  <si>
+    <t>District of Columbia_x000D_</t>
+  </si>
+  <si>
+    <t>Florida_x000D_</t>
+  </si>
+  <si>
+    <t>Georgia_x000D_</t>
+  </si>
+  <si>
+    <t>Hawaii_x000D_</t>
+  </si>
+  <si>
+    <t>Idaho_x000D_</t>
+  </si>
+  <si>
+    <t>Illinois_x000D_</t>
+  </si>
+  <si>
+    <t>Indiana_x000D_</t>
+  </si>
+  <si>
+    <t>Iowa_x000D_</t>
+  </si>
+  <si>
+    <t>Kansas_x000D_</t>
+  </si>
+  <si>
+    <t>Kentucky_x000D_</t>
+  </si>
+  <si>
+    <t>Louisiana_x000D_</t>
+  </si>
+  <si>
+    <t>Maine_x000D_</t>
+  </si>
+  <si>
+    <t>Maryland_x000D_</t>
+  </si>
+  <si>
+    <t>Massachusetts_x000D_</t>
+  </si>
+  <si>
+    <t>Michigan_x000D_</t>
+  </si>
+  <si>
+    <t>Minnesota_x000D_</t>
+  </si>
+  <si>
+    <t>Mississippi_x000D_</t>
+  </si>
+  <si>
+    <t>Missouri_x000D_</t>
+  </si>
+  <si>
+    <t>Montana_x000D_</t>
+  </si>
+  <si>
+    <t>Nebraska_x000D_</t>
+  </si>
+  <si>
+    <t>Nevada_x000D_</t>
+  </si>
+  <si>
+    <t>New Hampshire_x000D_</t>
+  </si>
+  <si>
+    <t>New Jersey_x000D_</t>
+  </si>
+  <si>
+    <t>New Mexico_x000D_</t>
+  </si>
+  <si>
+    <t>New York_x000D_</t>
+  </si>
+  <si>
+    <t>North Carolina_x000D_</t>
+  </si>
+  <si>
+    <t>North Dakota_x000D_</t>
+  </si>
+  <si>
+    <t>Ohio_x000D_</t>
+  </si>
+  <si>
+    <t>Oklahoma_x000D_</t>
+  </si>
+  <si>
+    <t>Oregon_x000D_</t>
+  </si>
+  <si>
+    <t>Pennsylvania_x000D_</t>
+  </si>
+  <si>
+    <t>Rhode Island_x000D_</t>
+  </si>
+  <si>
+    <t>South Carolina_x000D_</t>
+  </si>
+  <si>
+    <t>South Dakota_x000D_</t>
+  </si>
+  <si>
+    <t>Tennessee_x000D_</t>
+  </si>
+  <si>
+    <t>Texas_x000D_</t>
+  </si>
+  <si>
+    <t>Utah_x000D_</t>
+  </si>
+  <si>
+    <t>Vermont_x000D_</t>
+  </si>
+  <si>
+    <t>Virginia_x000D_</t>
+  </si>
+  <si>
+    <t>Washington_x000D_</t>
+  </si>
+  <si>
+    <t>West Virginia_x000D_</t>
+  </si>
+  <si>
+    <t>Wisconsin_x000D_</t>
+  </si>
+  <si>
+    <t>Wyoming_x000D_</t>
   </si>
 </sst>
 </file>
@@ -57568,8 +57884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F185C52A-B559-434F-91E8-650CE9E71B49}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -59792,4 +60108,4620 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B5EFA1-F1C6-417F-878A-6BFC10FC0822}">
+  <dimension ref="A1:E306"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F266" sqref="F266"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="16.06640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="6" width="13.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>2024</v>
+      </c>
+      <c r="D2">
+        <v>74.36</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>2024</v>
+      </c>
+      <c r="D3">
+        <v>67.06</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2024</v>
+      </c>
+      <c r="D4">
+        <v>63.6</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5">
+        <v>2024</v>
+      </c>
+      <c r="D5">
+        <v>63.45</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>2024</v>
+      </c>
+      <c r="D6">
+        <v>60.62</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2024</v>
+      </c>
+      <c r="D7">
+        <v>60.07</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2024</v>
+      </c>
+      <c r="D8">
+        <v>58.31</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9">
+        <v>2024</v>
+      </c>
+      <c r="D9">
+        <v>58.25</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>2024</v>
+      </c>
+      <c r="D10">
+        <v>57.81</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2024</v>
+      </c>
+      <c r="D11">
+        <v>57.71</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>2024</v>
+      </c>
+      <c r="D12">
+        <v>57.33</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>2024</v>
+      </c>
+      <c r="D13">
+        <v>56.94</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>2024</v>
+      </c>
+      <c r="D14">
+        <v>56.92</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>2024</v>
+      </c>
+      <c r="D15">
+        <v>56.69</v>
+      </c>
+      <c r="E15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2024</v>
+      </c>
+      <c r="D16">
+        <v>56.38</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>2024</v>
+      </c>
+      <c r="D17">
+        <v>55.71</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>2024</v>
+      </c>
+      <c r="D18">
+        <v>55.28</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>2024</v>
+      </c>
+      <c r="D19">
+        <v>54.81</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>2024</v>
+      </c>
+      <c r="D20">
+        <v>54.74</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>2024</v>
+      </c>
+      <c r="D21">
+        <v>54.64</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>2024</v>
+      </c>
+      <c r="D22">
+        <v>54.28</v>
+      </c>
+      <c r="E22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2024</v>
+      </c>
+      <c r="D23">
+        <v>53.14</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>2024</v>
+      </c>
+      <c r="D24">
+        <v>53.06</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>2024</v>
+      </c>
+      <c r="D25">
+        <v>52.75</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>2024</v>
+      </c>
+      <c r="D26">
+        <v>52.23</v>
+      </c>
+      <c r="E26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>2024</v>
+      </c>
+      <c r="D27">
+        <v>51.59</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>2024</v>
+      </c>
+      <c r="D28">
+        <v>51.49</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>2024</v>
+      </c>
+      <c r="D29">
+        <v>51.19</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>2024</v>
+      </c>
+      <c r="D30">
+        <v>49.86</v>
+      </c>
+      <c r="E30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>2024</v>
+      </c>
+      <c r="D31">
+        <v>48.88</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>2024</v>
+      </c>
+      <c r="D32">
+        <v>48.66</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>2024</v>
+      </c>
+      <c r="D33">
+        <v>48.48</v>
+      </c>
+      <c r="E33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>2024</v>
+      </c>
+      <c r="D34">
+        <v>48.04</v>
+      </c>
+      <c r="E34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>2024</v>
+      </c>
+      <c r="D35">
+        <v>47.61</v>
+      </c>
+      <c r="E35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>2024</v>
+      </c>
+      <c r="D36">
+        <v>47.42</v>
+      </c>
+      <c r="E36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>2024</v>
+      </c>
+      <c r="D37">
+        <v>47.12</v>
+      </c>
+      <c r="E37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>2024</v>
+      </c>
+      <c r="D38">
+        <v>46.47</v>
+      </c>
+      <c r="E38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>2024</v>
+      </c>
+      <c r="D39">
+        <v>45.69</v>
+      </c>
+      <c r="E39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>2024</v>
+      </c>
+      <c r="D40">
+        <v>45.43</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>2024</v>
+      </c>
+      <c r="D41">
+        <v>44.14</v>
+      </c>
+      <c r="E41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>2024</v>
+      </c>
+      <c r="D42">
+        <v>42.92</v>
+      </c>
+      <c r="E42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>2024</v>
+      </c>
+      <c r="D43">
+        <v>42.87</v>
+      </c>
+      <c r="E43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44">
+        <v>2024</v>
+      </c>
+      <c r="D44">
+        <v>40.35</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>2024</v>
+      </c>
+      <c r="D45">
+        <v>40.159999999999997</v>
+      </c>
+      <c r="E45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>2024</v>
+      </c>
+      <c r="D46">
+        <v>38.6</v>
+      </c>
+      <c r="E46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47">
+        <v>2024</v>
+      </c>
+      <c r="D47">
+        <v>38.56</v>
+      </c>
+      <c r="E47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>2024</v>
+      </c>
+      <c r="D48">
+        <v>38.17</v>
+      </c>
+      <c r="E48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <v>2024</v>
+      </c>
+      <c r="D49">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50">
+        <v>2024</v>
+      </c>
+      <c r="D50">
+        <v>33.32</v>
+      </c>
+      <c r="E50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51">
+        <v>2024</v>
+      </c>
+      <c r="D51">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52">
+        <v>2024</v>
+      </c>
+      <c r="D52">
+        <v>27.92</v>
+      </c>
+      <c r="E52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53">
+        <v>2023</v>
+      </c>
+      <c r="D53">
+        <v>83.03</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>2023</v>
+      </c>
+      <c r="D54">
+        <v>76.73</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>2023</v>
+      </c>
+      <c r="D55">
+        <v>72.06</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>2023</v>
+      </c>
+      <c r="D56">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>2023</v>
+      </c>
+      <c r="D57">
+        <v>69.3</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58">
+        <v>2023</v>
+      </c>
+      <c r="D58">
+        <v>68.849999999999994</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59">
+        <v>2023</v>
+      </c>
+      <c r="D59">
+        <v>67.33</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>2023</v>
+      </c>
+      <c r="D60">
+        <v>67.2</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>2023</v>
+      </c>
+      <c r="D61">
+        <v>63.98</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>2023</v>
+      </c>
+      <c r="D62">
+        <v>63.31</v>
+      </c>
+      <c r="E62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63">
+        <v>2023</v>
+      </c>
+      <c r="D63">
+        <v>63.12</v>
+      </c>
+      <c r="E63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>2023</v>
+      </c>
+      <c r="D64">
+        <v>58.61</v>
+      </c>
+      <c r="E64">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65">
+        <v>2023</v>
+      </c>
+      <c r="D65">
+        <v>58.05</v>
+      </c>
+      <c r="E65">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66">
+        <v>2023</v>
+      </c>
+      <c r="D66">
+        <v>57.25</v>
+      </c>
+      <c r="E66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67">
+        <v>2023</v>
+      </c>
+      <c r="D67">
+        <v>57.22</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68">
+        <v>2023</v>
+      </c>
+      <c r="D68">
+        <v>57.2</v>
+      </c>
+      <c r="E68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>2023</v>
+      </c>
+      <c r="D69">
+        <v>55.97</v>
+      </c>
+      <c r="E69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>2023</v>
+      </c>
+      <c r="D70">
+        <v>55.94</v>
+      </c>
+      <c r="E70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <v>2023</v>
+      </c>
+      <c r="D71">
+        <v>54.99</v>
+      </c>
+      <c r="E71">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>20</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72">
+        <v>2023</v>
+      </c>
+      <c r="D72">
+        <v>54.52</v>
+      </c>
+      <c r="E72">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>2023</v>
+      </c>
+      <c r="D73">
+        <v>53.26</v>
+      </c>
+      <c r="E73">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>2023</v>
+      </c>
+      <c r="D74">
+        <v>52.24</v>
+      </c>
+      <c r="E74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>2023</v>
+      </c>
+      <c r="D75">
+        <v>52.11</v>
+      </c>
+      <c r="E75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>2023</v>
+      </c>
+      <c r="D76">
+        <v>51.64</v>
+      </c>
+      <c r="E76">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>2023</v>
+      </c>
+      <c r="D77">
+        <v>51.39</v>
+      </c>
+      <c r="E77">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>26</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78">
+        <v>2023</v>
+      </c>
+      <c r="D78">
+        <v>51.3</v>
+      </c>
+      <c r="E78">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79">
+        <v>2023</v>
+      </c>
+      <c r="D79">
+        <v>50.41</v>
+      </c>
+      <c r="E79">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80">
+        <v>2023</v>
+      </c>
+      <c r="D80">
+        <v>49.08</v>
+      </c>
+      <c r="E80">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>29</v>
+      </c>
+      <c r="B81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C81">
+        <v>2023</v>
+      </c>
+      <c r="D81">
+        <v>48.82</v>
+      </c>
+      <c r="E81">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>30</v>
+      </c>
+      <c r="B82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82">
+        <v>2023</v>
+      </c>
+      <c r="D82">
+        <v>48.78</v>
+      </c>
+      <c r="E82">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>31</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>2023</v>
+      </c>
+      <c r="D83">
+        <v>48.06</v>
+      </c>
+      <c r="E83">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>32</v>
+      </c>
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84">
+        <v>2023</v>
+      </c>
+      <c r="D84">
+        <v>47.87</v>
+      </c>
+      <c r="E84">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>33</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85">
+        <v>2023</v>
+      </c>
+      <c r="D85">
+        <v>47.31</v>
+      </c>
+      <c r="E85">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>34</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86">
+        <v>2023</v>
+      </c>
+      <c r="D86">
+        <v>46.39</v>
+      </c>
+      <c r="E86">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>35</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>2023</v>
+      </c>
+      <c r="D87">
+        <v>46.34</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>36</v>
+      </c>
+      <c r="B88" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88">
+        <v>2023</v>
+      </c>
+      <c r="D88">
+        <v>46.18</v>
+      </c>
+      <c r="E88">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>37</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89">
+        <v>2023</v>
+      </c>
+      <c r="D89">
+        <v>44.37</v>
+      </c>
+      <c r="E89">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>38</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90">
+        <v>2023</v>
+      </c>
+      <c r="D90">
+        <v>42.6</v>
+      </c>
+      <c r="E90">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91">
+        <v>2023</v>
+      </c>
+      <c r="D91">
+        <v>42.09</v>
+      </c>
+      <c r="E91">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>40</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>2023</v>
+      </c>
+      <c r="D92">
+        <v>41.16</v>
+      </c>
+      <c r="E92">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93">
+        <v>2023</v>
+      </c>
+      <c r="D93">
+        <v>40.14</v>
+      </c>
+      <c r="E93">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>42</v>
+      </c>
+      <c r="B94" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94">
+        <v>2023</v>
+      </c>
+      <c r="D94">
+        <v>36.99</v>
+      </c>
+      <c r="E94">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>43</v>
+      </c>
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95">
+        <v>2023</v>
+      </c>
+      <c r="D95">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E95">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>43</v>
+      </c>
+      <c r="B96" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96">
+        <v>2023</v>
+      </c>
+      <c r="D96">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="E96">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>45</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97">
+        <v>2023</v>
+      </c>
+      <c r="D97">
+        <v>35.32</v>
+      </c>
+      <c r="E97">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>46</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>2023</v>
+      </c>
+      <c r="D98">
+        <v>34.46</v>
+      </c>
+      <c r="E98">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>47</v>
+      </c>
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+      <c r="C99">
+        <v>2023</v>
+      </c>
+      <c r="D99">
+        <v>30.87</v>
+      </c>
+      <c r="E99">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>48</v>
+      </c>
+      <c r="B100" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100">
+        <v>2023</v>
+      </c>
+      <c r="D100">
+        <v>27.36</v>
+      </c>
+      <c r="E100">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>49</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101">
+        <v>2023</v>
+      </c>
+      <c r="D101">
+        <v>25.64</v>
+      </c>
+      <c r="E101">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>50</v>
+      </c>
+      <c r="B102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102">
+        <v>2023</v>
+      </c>
+      <c r="D102">
+        <v>22.4</v>
+      </c>
+      <c r="E102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103">
+        <v>2022</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104">
+        <v>2022</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105">
+        <v>2022</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106">
+        <v>2022</v>
+      </c>
+      <c r="E106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107">
+        <v>2022</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108">
+        <v>2022</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>2022</v>
+      </c>
+      <c r="E109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110">
+        <v>2022</v>
+      </c>
+      <c r="E110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111">
+        <v>2022</v>
+      </c>
+      <c r="E111">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>2022</v>
+      </c>
+      <c r="E112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113">
+        <v>2022</v>
+      </c>
+      <c r="E113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>2022</v>
+      </c>
+      <c r="E114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115">
+        <v>2022</v>
+      </c>
+      <c r="E115">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116">
+        <v>2022</v>
+      </c>
+      <c r="E116">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>15</v>
+      </c>
+      <c r="B117" t="s">
+        <v>50</v>
+      </c>
+      <c r="C117">
+        <v>2022</v>
+      </c>
+      <c r="E117">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118">
+        <v>2022</v>
+      </c>
+      <c r="E118">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>51</v>
+      </c>
+      <c r="C119">
+        <v>2022</v>
+      </c>
+      <c r="E119">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>18</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120">
+        <v>2022</v>
+      </c>
+      <c r="E120">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
+        <v>46</v>
+      </c>
+      <c r="C121">
+        <v>2022</v>
+      </c>
+      <c r="E121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>20</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>2022</v>
+      </c>
+      <c r="E122">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>21</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123">
+        <v>2022</v>
+      </c>
+      <c r="E123">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>22</v>
+      </c>
+      <c r="B124" t="s">
+        <v>43</v>
+      </c>
+      <c r="C124">
+        <v>2022</v>
+      </c>
+      <c r="E124">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>23</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>2022</v>
+      </c>
+      <c r="E125">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>24</v>
+      </c>
+      <c r="B126" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126">
+        <v>2022</v>
+      </c>
+      <c r="E126">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>25</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127">
+        <v>2022</v>
+      </c>
+      <c r="E127">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>26</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128">
+        <v>2022</v>
+      </c>
+      <c r="E128">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>27</v>
+      </c>
+      <c r="B129" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129">
+        <v>2022</v>
+      </c>
+      <c r="E129">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>28</v>
+      </c>
+      <c r="B130" t="s">
+        <v>41</v>
+      </c>
+      <c r="C130">
+        <v>2022</v>
+      </c>
+      <c r="E130">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>29</v>
+      </c>
+      <c r="B131" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131">
+        <v>2022</v>
+      </c>
+      <c r="E131">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>30</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>2022</v>
+      </c>
+      <c r="E132">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>31</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133">
+        <v>2022</v>
+      </c>
+      <c r="E133">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>32</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>2022</v>
+      </c>
+      <c r="E134">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>33</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135">
+        <v>2022</v>
+      </c>
+      <c r="E135">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>34</v>
+      </c>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>2022</v>
+      </c>
+      <c r="E136">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>35</v>
+      </c>
+      <c r="B137" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137">
+        <v>2022</v>
+      </c>
+      <c r="E137">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>36</v>
+      </c>
+      <c r="B138" t="s">
+        <v>40</v>
+      </c>
+      <c r="C138">
+        <v>2022</v>
+      </c>
+      <c r="E138">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>37</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139">
+        <v>2022</v>
+      </c>
+      <c r="E139">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>38</v>
+      </c>
+      <c r="B140" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140">
+        <v>2022</v>
+      </c>
+      <c r="E140">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>39</v>
+      </c>
+      <c r="B141" t="s">
+        <v>30</v>
+      </c>
+      <c r="C141">
+        <v>2022</v>
+      </c>
+      <c r="E141">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>40</v>
+      </c>
+      <c r="B142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142">
+        <v>2022</v>
+      </c>
+      <c r="E142">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>41</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>2022</v>
+      </c>
+      <c r="E143">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>42</v>
+      </c>
+      <c r="B144" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144">
+        <v>2022</v>
+      </c>
+      <c r="E144">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>43</v>
+      </c>
+      <c r="B145" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145">
+        <v>2022</v>
+      </c>
+      <c r="E145">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>44</v>
+      </c>
+      <c r="B146" t="s">
+        <v>42</v>
+      </c>
+      <c r="C146">
+        <v>2022</v>
+      </c>
+      <c r="E146">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>45</v>
+      </c>
+      <c r="B147" t="s">
+        <v>45</v>
+      </c>
+      <c r="C147">
+        <v>2022</v>
+      </c>
+      <c r="E147">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>46</v>
+      </c>
+      <c r="B148" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148">
+        <v>2022</v>
+      </c>
+      <c r="E148">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>47</v>
+      </c>
+      <c r="B149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149">
+        <v>2022</v>
+      </c>
+      <c r="E149">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>48</v>
+      </c>
+      <c r="B150" t="s">
+        <v>35</v>
+      </c>
+      <c r="C150">
+        <v>2022</v>
+      </c>
+      <c r="E150">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>49</v>
+      </c>
+      <c r="B151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151">
+        <v>2022</v>
+      </c>
+      <c r="E151">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>50</v>
+      </c>
+      <c r="B152" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152">
+        <v>2022</v>
+      </c>
+      <c r="E152">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>51</v>
+      </c>
+      <c r="B153" t="s">
+        <v>38</v>
+      </c>
+      <c r="C153">
+        <v>2022</v>
+      </c>
+      <c r="E153">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>47</v>
+      </c>
+      <c r="B154" t="s">
+        <v>200</v>
+      </c>
+      <c r="C154">
+        <v>2021</v>
+      </c>
+      <c r="D154">
+        <v>69.5</v>
+      </c>
+      <c r="E154">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>37</v>
+      </c>
+      <c r="B155" t="s">
+        <v>201</v>
+      </c>
+      <c r="C155">
+        <v>2021</v>
+      </c>
+      <c r="D155">
+        <v>73</v>
+      </c>
+      <c r="E155">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>46</v>
+      </c>
+      <c r="B156" t="s">
+        <v>202</v>
+      </c>
+      <c r="C156">
+        <v>2021</v>
+      </c>
+      <c r="D156">
+        <v>70.3</v>
+      </c>
+      <c r="E156">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>43</v>
+      </c>
+      <c r="B157" t="s">
+        <v>203</v>
+      </c>
+      <c r="C157">
+        <v>2021</v>
+      </c>
+      <c r="D157">
+        <v>71.2</v>
+      </c>
+      <c r="E157">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>22</v>
+      </c>
+      <c r="B158" t="s">
+        <v>204</v>
+      </c>
+      <c r="C158">
+        <v>2021</v>
+      </c>
+      <c r="D158">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E158">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>22</v>
+      </c>
+      <c r="B159" t="s">
+        <v>205</v>
+      </c>
+      <c r="C159">
+        <v>2021</v>
+      </c>
+      <c r="D159">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>206</v>
+      </c>
+      <c r="C160">
+        <v>2021</v>
+      </c>
+      <c r="D160">
+        <v>83.8</v>
+      </c>
+      <c r="E160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
+        <v>207</v>
+      </c>
+      <c r="C161">
+        <v>2021</v>
+      </c>
+      <c r="D161">
+        <v>76.5</v>
+      </c>
+      <c r="E161">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>15</v>
+      </c>
+      <c r="B162" t="s">
+        <v>208</v>
+      </c>
+      <c r="C162">
+        <v>2021</v>
+      </c>
+      <c r="D162">
+        <v>78.8</v>
+      </c>
+      <c r="E162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>22</v>
+      </c>
+      <c r="B163" t="s">
+        <v>209</v>
+      </c>
+      <c r="C163">
+        <v>2021</v>
+      </c>
+      <c r="D163">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E163">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>29</v>
+      </c>
+      <c r="B164" t="s">
+        <v>210</v>
+      </c>
+      <c r="C164">
+        <v>2021</v>
+      </c>
+      <c r="D164">
+        <v>74.3</v>
+      </c>
+      <c r="E164">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>22</v>
+      </c>
+      <c r="B165" t="s">
+        <v>211</v>
+      </c>
+      <c r="C165">
+        <v>2021</v>
+      </c>
+      <c r="D165">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="E165">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>40</v>
+      </c>
+      <c r="B166" t="s">
+        <v>212</v>
+      </c>
+      <c r="C166">
+        <v>2021</v>
+      </c>
+      <c r="D166">
+        <v>71.5</v>
+      </c>
+      <c r="E166">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>213</v>
+      </c>
+      <c r="C167">
+        <v>2021</v>
+      </c>
+      <c r="D167">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E167">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>28</v>
+      </c>
+      <c r="B168" t="s">
+        <v>214</v>
+      </c>
+      <c r="C168">
+        <v>2021</v>
+      </c>
+      <c r="D168">
+        <v>74.5</v>
+      </c>
+      <c r="E168">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>27</v>
+      </c>
+      <c r="B169" t="s">
+        <v>215</v>
+      </c>
+      <c r="C169">
+        <v>2021</v>
+      </c>
+      <c r="D169">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="E169">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>31</v>
+      </c>
+      <c r="B170" t="s">
+        <v>216</v>
+      </c>
+      <c r="C170">
+        <v>2021</v>
+      </c>
+      <c r="D170">
+        <v>73.8</v>
+      </c>
+      <c r="E170">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>29</v>
+      </c>
+      <c r="B171" t="s">
+        <v>217</v>
+      </c>
+      <c r="C171">
+        <v>2021</v>
+      </c>
+      <c r="D171">
+        <v>74.3</v>
+      </c>
+      <c r="E171">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>48</v>
+      </c>
+      <c r="B172" t="s">
+        <v>218</v>
+      </c>
+      <c r="C172">
+        <v>2021</v>
+      </c>
+      <c r="D172">
+        <v>68.7</v>
+      </c>
+      <c r="E172">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>16</v>
+      </c>
+      <c r="B173" t="s">
+        <v>219</v>
+      </c>
+      <c r="C173">
+        <v>2021</v>
+      </c>
+      <c r="D173">
+        <v>78.7</v>
+      </c>
+      <c r="E173">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>220</v>
+      </c>
+      <c r="C174">
+        <v>2021</v>
+      </c>
+      <c r="D174">
+        <v>82.8</v>
+      </c>
+      <c r="E174">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175" t="s">
+        <v>221</v>
+      </c>
+      <c r="C175">
+        <v>2021</v>
+      </c>
+      <c r="D175">
+        <v>87.2</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>33</v>
+      </c>
+      <c r="B176" t="s">
+        <v>222</v>
+      </c>
+      <c r="C176">
+        <v>2021</v>
+      </c>
+      <c r="D176">
+        <v>73.5</v>
+      </c>
+      <c r="E176">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>223</v>
+      </c>
+      <c r="C177">
+        <v>2021</v>
+      </c>
+      <c r="D177">
+        <v>80.2</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>44</v>
+      </c>
+      <c r="B178" t="s">
+        <v>224</v>
+      </c>
+      <c r="C178">
+        <v>2021</v>
+      </c>
+      <c r="D178">
+        <v>70.8</v>
+      </c>
+      <c r="E178">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>38</v>
+      </c>
+      <c r="B179" t="s">
+        <v>225</v>
+      </c>
+      <c r="C179">
+        <v>2021</v>
+      </c>
+      <c r="D179">
+        <v>72.8</v>
+      </c>
+      <c r="E179">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>33</v>
+      </c>
+      <c r="B180" t="s">
+        <v>226</v>
+      </c>
+      <c r="C180">
+        <v>2021</v>
+      </c>
+      <c r="D180">
+        <v>73.5</v>
+      </c>
+      <c r="E180">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>20</v>
+      </c>
+      <c r="B181" t="s">
+        <v>227</v>
+      </c>
+      <c r="C181">
+        <v>2021</v>
+      </c>
+      <c r="D181">
+        <v>76</v>
+      </c>
+      <c r="E181">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>49</v>
+      </c>
+      <c r="B182" t="s">
+        <v>228</v>
+      </c>
+      <c r="C182">
+        <v>2021</v>
+      </c>
+      <c r="D182">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E182">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>229</v>
+      </c>
+      <c r="C183">
+        <v>2021</v>
+      </c>
+      <c r="D183">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="E183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184" t="s">
+        <v>230</v>
+      </c>
+      <c r="C184">
+        <v>2021</v>
+      </c>
+      <c r="D184">
+        <v>88.1</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>51</v>
+      </c>
+      <c r="B185" t="s">
+        <v>231</v>
+      </c>
+      <c r="C185">
+        <v>2021</v>
+      </c>
+      <c r="D185">
+        <v>66.7</v>
+      </c>
+      <c r="E185">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>232</v>
+      </c>
+      <c r="C186">
+        <v>2021</v>
+      </c>
+      <c r="D186">
+        <v>82</v>
+      </c>
+      <c r="E186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>33</v>
+      </c>
+      <c r="B187" t="s">
+        <v>233</v>
+      </c>
+      <c r="C187">
+        <v>2021</v>
+      </c>
+      <c r="D187">
+        <v>73.5</v>
+      </c>
+      <c r="E187">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>18</v>
+      </c>
+      <c r="B188" t="s">
+        <v>234</v>
+      </c>
+      <c r="C188">
+        <v>2021</v>
+      </c>
+      <c r="D188">
+        <v>77.8</v>
+      </c>
+      <c r="E188">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>235</v>
+      </c>
+      <c r="C189">
+        <v>2021</v>
+      </c>
+      <c r="D189">
+        <v>75.8</v>
+      </c>
+      <c r="E189">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>49</v>
+      </c>
+      <c r="B190" t="s">
+        <v>236</v>
+      </c>
+      <c r="C190">
+        <v>2021</v>
+      </c>
+      <c r="D190">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E190">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>39</v>
+      </c>
+      <c r="B191" t="s">
+        <v>237</v>
+      </c>
+      <c r="C191">
+        <v>2021</v>
+      </c>
+      <c r="D191">
+        <v>72.7</v>
+      </c>
+      <c r="E191">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>9</v>
+      </c>
+      <c r="B192" t="s">
+        <v>238</v>
+      </c>
+      <c r="C192">
+        <v>2021</v>
+      </c>
+      <c r="D192">
+        <v>80.7</v>
+      </c>
+      <c r="E192">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>11</v>
+      </c>
+      <c r="B193" t="s">
+        <v>239</v>
+      </c>
+      <c r="C193">
+        <v>2021</v>
+      </c>
+      <c r="D193">
+        <v>80.3</v>
+      </c>
+      <c r="E193">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>41</v>
+      </c>
+      <c r="B194" t="s">
+        <v>240</v>
+      </c>
+      <c r="C194">
+        <v>2021</v>
+      </c>
+      <c r="D194">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="E194">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>31</v>
+      </c>
+      <c r="B195" t="s">
+        <v>241</v>
+      </c>
+      <c r="C195">
+        <v>2021</v>
+      </c>
+      <c r="D195">
+        <v>73.8</v>
+      </c>
+      <c r="E195">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>36</v>
+      </c>
+      <c r="B196" t="s">
+        <v>242</v>
+      </c>
+      <c r="C196">
+        <v>2021</v>
+      </c>
+      <c r="D196">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E196">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>42</v>
+      </c>
+      <c r="B197" t="s">
+        <v>243</v>
+      </c>
+      <c r="C197">
+        <v>2021</v>
+      </c>
+      <c r="D197">
+        <v>71.3</v>
+      </c>
+      <c r="E197">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>26</v>
+      </c>
+      <c r="B198" t="s">
+        <v>244</v>
+      </c>
+      <c r="C198">
+        <v>2021</v>
+      </c>
+      <c r="D198">
+        <v>74.7</v>
+      </c>
+      <c r="E198">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>8</v>
+      </c>
+      <c r="B199" t="s">
+        <v>245</v>
+      </c>
+      <c r="C199">
+        <v>2021</v>
+      </c>
+      <c r="D199">
+        <v>81</v>
+      </c>
+      <c r="E199">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>13</v>
+      </c>
+      <c r="B200" t="s">
+        <v>246</v>
+      </c>
+      <c r="C200">
+        <v>2021</v>
+      </c>
+      <c r="D200">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="E200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>16</v>
+      </c>
+      <c r="B201" t="s">
+        <v>247</v>
+      </c>
+      <c r="C201">
+        <v>2021</v>
+      </c>
+      <c r="D201">
+        <v>78.7</v>
+      </c>
+      <c r="E201">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>44</v>
+      </c>
+      <c r="B202" t="s">
+        <v>248</v>
+      </c>
+      <c r="C202">
+        <v>2021</v>
+      </c>
+      <c r="D202">
+        <v>70.8</v>
+      </c>
+      <c r="E202">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>249</v>
+      </c>
+      <c r="C203">
+        <v>2021</v>
+      </c>
+      <c r="D203">
+        <v>79</v>
+      </c>
+      <c r="E203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>250</v>
+      </c>
+      <c r="C204">
+        <v>2021</v>
+      </c>
+      <c r="D204">
+        <v>81.2</v>
+      </c>
+      <c r="E204">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>48</v>
+      </c>
+      <c r="B205" t="s">
+        <v>149</v>
+      </c>
+      <c r="C205">
+        <v>2020</v>
+      </c>
+      <c r="D205">
+        <v>69.3</v>
+      </c>
+      <c r="E205">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>37</v>
+      </c>
+      <c r="B206" t="s">
+        <v>150</v>
+      </c>
+      <c r="C206">
+        <v>2020</v>
+      </c>
+      <c r="D206">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E206">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>46</v>
+      </c>
+      <c r="B207" t="s">
+        <v>151</v>
+      </c>
+      <c r="C207">
+        <v>2020</v>
+      </c>
+      <c r="D207">
+        <v>70.2</v>
+      </c>
+      <c r="E207">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>40</v>
+      </c>
+      <c r="B208" t="s">
+        <v>152</v>
+      </c>
+      <c r="C208">
+        <v>2020</v>
+      </c>
+      <c r="D208">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="E208">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>22</v>
+      </c>
+      <c r="B209" t="s">
+        <v>153</v>
+      </c>
+      <c r="C209">
+        <v>2020</v>
+      </c>
+      <c r="D209">
+        <v>75.3</v>
+      </c>
+      <c r="E209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>25</v>
+      </c>
+      <c r="B210" t="s">
+        <v>154</v>
+      </c>
+      <c r="C210">
+        <v>2020</v>
+      </c>
+      <c r="D210">
+        <v>75</v>
+      </c>
+      <c r="E210">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211" t="s">
+        <v>155</v>
+      </c>
+      <c r="C211">
+        <v>2020</v>
+      </c>
+      <c r="D211">
+        <v>84.1</v>
+      </c>
+      <c r="E211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>19</v>
+      </c>
+      <c r="B212" t="s">
+        <v>156</v>
+      </c>
+      <c r="C212">
+        <v>2020</v>
+      </c>
+      <c r="D212">
+        <v>76.3</v>
+      </c>
+      <c r="E212">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>17</v>
+      </c>
+      <c r="B213" t="s">
+        <v>157</v>
+      </c>
+      <c r="C213">
+        <v>2020</v>
+      </c>
+      <c r="D213">
+        <v>77.8</v>
+      </c>
+      <c r="E213">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>24</v>
+      </c>
+      <c r="B214" t="s">
+        <v>158</v>
+      </c>
+      <c r="C214">
+        <v>2020</v>
+      </c>
+      <c r="D214">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="E214">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>31</v>
+      </c>
+      <c r="B215" t="s">
+        <v>159</v>
+      </c>
+      <c r="C215">
+        <v>2020</v>
+      </c>
+      <c r="D215">
+        <v>73.3</v>
+      </c>
+      <c r="E215">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>22</v>
+      </c>
+      <c r="B216" t="s">
+        <v>160</v>
+      </c>
+      <c r="C216">
+        <v>2020</v>
+      </c>
+      <c r="D216">
+        <v>75.3</v>
+      </c>
+      <c r="E216">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>43</v>
+      </c>
+      <c r="B217" t="s">
+        <v>161</v>
+      </c>
+      <c r="C217">
+        <v>2020</v>
+      </c>
+      <c r="D217">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="E217">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>11</v>
+      </c>
+      <c r="B218" t="s">
+        <v>162</v>
+      </c>
+      <c r="C218">
+        <v>2020</v>
+      </c>
+      <c r="D218">
+        <v>80</v>
+      </c>
+      <c r="E218">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>29</v>
+      </c>
+      <c r="B219" t="s">
+        <v>163</v>
+      </c>
+      <c r="C219">
+        <v>2020</v>
+      </c>
+      <c r="D219">
+        <v>74</v>
+      </c>
+      <c r="E219">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>26</v>
+      </c>
+      <c r="B220" t="s">
+        <v>164</v>
+      </c>
+      <c r="C220">
+        <v>2020</v>
+      </c>
+      <c r="D220">
+        <v>74.8</v>
+      </c>
+      <c r="E220">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>31</v>
+      </c>
+      <c r="B221" t="s">
+        <v>165</v>
+      </c>
+      <c r="C221">
+        <v>2020</v>
+      </c>
+      <c r="D221">
+        <v>73.3</v>
+      </c>
+      <c r="E221">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>37</v>
+      </c>
+      <c r="B222" t="s">
+        <v>166</v>
+      </c>
+      <c r="C222">
+        <v>2020</v>
+      </c>
+      <c r="D222">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E222">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>47</v>
+      </c>
+      <c r="B223" t="s">
+        <v>167</v>
+      </c>
+      <c r="C223">
+        <v>2020</v>
+      </c>
+      <c r="D223">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="E223">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>16</v>
+      </c>
+      <c r="B224" t="s">
+        <v>168</v>
+      </c>
+      <c r="C224">
+        <v>2020</v>
+      </c>
+      <c r="D224">
+        <v>78.8</v>
+      </c>
+      <c r="E224">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>4</v>
+      </c>
+      <c r="B225" t="s">
+        <v>169</v>
+      </c>
+      <c r="C225">
+        <v>2020</v>
+      </c>
+      <c r="D225">
+        <v>82.4</v>
+      </c>
+      <c r="E225">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226" t="s">
+        <v>170</v>
+      </c>
+      <c r="C226">
+        <v>2020</v>
+      </c>
+      <c r="D226">
+        <v>86.7</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>34</v>
+      </c>
+      <c r="B227" t="s">
+        <v>171</v>
+      </c>
+      <c r="C227">
+        <v>2020</v>
+      </c>
+      <c r="D227">
+        <v>73</v>
+      </c>
+      <c r="E227">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>172</v>
+      </c>
+      <c r="C228">
+        <v>2020</v>
+      </c>
+      <c r="D228">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="E228">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>45</v>
+      </c>
+      <c r="B229" t="s">
+        <v>173</v>
+      </c>
+      <c r="C229">
+        <v>2020</v>
+      </c>
+      <c r="D229">
+        <v>70.5</v>
+      </c>
+      <c r="E229">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>36</v>
+      </c>
+      <c r="B230" t="s">
+        <v>174</v>
+      </c>
+      <c r="C230">
+        <v>2020</v>
+      </c>
+      <c r="D230">
+        <v>72.7</v>
+      </c>
+      <c r="E230">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>30</v>
+      </c>
+      <c r="B231" t="s">
+        <v>175</v>
+      </c>
+      <c r="C231">
+        <v>2020</v>
+      </c>
+      <c r="D231">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="E231">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>20</v>
+      </c>
+      <c r="B232" t="s">
+        <v>176</v>
+      </c>
+      <c r="C232">
+        <v>2020</v>
+      </c>
+      <c r="D232">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E232">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>49</v>
+      </c>
+      <c r="B233" t="s">
+        <v>177</v>
+      </c>
+      <c r="C233">
+        <v>2020</v>
+      </c>
+      <c r="D233">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="E233">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>9</v>
+      </c>
+      <c r="B234" t="s">
+        <v>178</v>
+      </c>
+      <c r="C234">
+        <v>2020</v>
+      </c>
+      <c r="D234">
+        <v>80.2</v>
+      </c>
+      <c r="E234">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>1</v>
+      </c>
+      <c r="B235" t="s">
+        <v>179</v>
+      </c>
+      <c r="C235">
+        <v>2020</v>
+      </c>
+      <c r="D235">
+        <v>87.3</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>51</v>
+      </c>
+      <c r="B236" t="s">
+        <v>180</v>
+      </c>
+      <c r="C236">
+        <v>2020</v>
+      </c>
+      <c r="D236">
+        <v>66.5</v>
+      </c>
+      <c r="E236">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>8</v>
+      </c>
+      <c r="B237" t="s">
+        <v>181</v>
+      </c>
+      <c r="C237">
+        <v>2020</v>
+      </c>
+      <c r="D237">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="E237">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>33</v>
+      </c>
+      <c r="B238" t="s">
+        <v>182</v>
+      </c>
+      <c r="C238">
+        <v>2020</v>
+      </c>
+      <c r="D238">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E238">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>15</v>
+      </c>
+      <c r="B239" t="s">
+        <v>183</v>
+      </c>
+      <c r="C239">
+        <v>2020</v>
+      </c>
+      <c r="D239">
+        <v>79</v>
+      </c>
+      <c r="E239">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>21</v>
+      </c>
+      <c r="B240" t="s">
+        <v>184</v>
+      </c>
+      <c r="C240">
+        <v>2020</v>
+      </c>
+      <c r="D240">
+        <v>75.7</v>
+      </c>
+      <c r="E240">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>50</v>
+      </c>
+      <c r="B241" t="s">
+        <v>185</v>
+      </c>
+      <c r="C241">
+        <v>2020</v>
+      </c>
+      <c r="D241">
+        <v>68.2</v>
+      </c>
+      <c r="E241">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>34</v>
+      </c>
+      <c r="B242" t="s">
+        <v>186</v>
+      </c>
+      <c r="C242">
+        <v>2020</v>
+      </c>
+      <c r="D242">
+        <v>73</v>
+      </c>
+      <c r="E242">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>7</v>
+      </c>
+      <c r="B243" t="s">
+        <v>187</v>
+      </c>
+      <c r="C243">
+        <v>2020</v>
+      </c>
+      <c r="D243">
+        <v>81.5</v>
+      </c>
+      <c r="E243">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A244">
+        <v>13</v>
+      </c>
+      <c r="B244" t="s">
+        <v>188</v>
+      </c>
+      <c r="C244">
+        <v>2020</v>
+      </c>
+      <c r="D244">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="E244">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A245">
+        <v>40</v>
+      </c>
+      <c r="B245" t="s">
+        <v>189</v>
+      </c>
+      <c r="C245">
+        <v>2020</v>
+      </c>
+      <c r="D245">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="E245">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <v>28</v>
+      </c>
+      <c r="B246" t="s">
+        <v>190</v>
+      </c>
+      <c r="C246">
+        <v>2020</v>
+      </c>
+      <c r="D246">
+        <v>74.2</v>
+      </c>
+      <c r="E246">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A247">
+        <v>39</v>
+      </c>
+      <c r="B247" t="s">
+        <v>191</v>
+      </c>
+      <c r="C247">
+        <v>2020</v>
+      </c>
+      <c r="D247">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="E247">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>42</v>
+      </c>
+      <c r="B248" t="s">
+        <v>192</v>
+      </c>
+      <c r="C248">
+        <v>2020</v>
+      </c>
+      <c r="D248">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="E248">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <v>27</v>
+      </c>
+      <c r="B249" t="s">
+        <v>193</v>
+      </c>
+      <c r="C249">
+        <v>2020</v>
+      </c>
+      <c r="D249">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E249">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <v>6</v>
+      </c>
+      <c r="B250" t="s">
+        <v>194</v>
+      </c>
+      <c r="C250">
+        <v>2020</v>
+      </c>
+      <c r="D250">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="E250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A251">
+        <v>12</v>
+      </c>
+      <c r="B251" t="s">
+        <v>195</v>
+      </c>
+      <c r="C251">
+        <v>2020</v>
+      </c>
+      <c r="D251">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="E251">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A252">
+        <v>18</v>
+      </c>
+      <c r="B252" t="s">
+        <v>196</v>
+      </c>
+      <c r="C252">
+        <v>2020</v>
+      </c>
+      <c r="D252">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E252">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A253">
+        <v>43</v>
+      </c>
+      <c r="B253" t="s">
+        <v>197</v>
+      </c>
+      <c r="C253">
+        <v>2020</v>
+      </c>
+      <c r="D253">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="E253">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A254">
+        <v>14</v>
+      </c>
+      <c r="B254" t="s">
+        <v>198</v>
+      </c>
+      <c r="C254">
+        <v>2020</v>
+      </c>
+      <c r="D254">
+        <v>79.2</v>
+      </c>
+      <c r="E254">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <v>5</v>
+      </c>
+      <c r="B255" t="s">
+        <v>199</v>
+      </c>
+      <c r="C255">
+        <v>2020</v>
+      </c>
+      <c r="D255">
+        <v>82.3</v>
+      </c>
+      <c r="E255">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <v>2</v>
+      </c>
+      <c r="B256" t="s">
+        <v>179</v>
+      </c>
+      <c r="C256">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B257" t="s">
+        <v>170</v>
+      </c>
+      <c r="C257">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C258">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B259" t="s">
+        <v>169</v>
+      </c>
+      <c r="C259">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B260" t="s">
+        <v>199</v>
+      </c>
+      <c r="C260">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B261" t="s">
+        <v>194</v>
+      </c>
+      <c r="C261">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B262" t="s">
+        <v>187</v>
+      </c>
+      <c r="C262">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B263" t="s">
+        <v>181</v>
+      </c>
+      <c r="C263">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B264" t="s">
+        <v>178</v>
+      </c>
+      <c r="C264">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B265" t="s">
+        <v>172</v>
+      </c>
+      <c r="C265">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B266" t="s">
+        <v>162</v>
+      </c>
+      <c r="C266">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B267" t="s">
+        <v>195</v>
+      </c>
+      <c r="C267">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B268" t="s">
+        <v>188</v>
+      </c>
+      <c r="C268">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B269" t="s">
+        <v>198</v>
+      </c>
+      <c r="C269">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B270" t="s">
+        <v>183</v>
+      </c>
+      <c r="C270">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B271" t="s">
+        <v>168</v>
+      </c>
+      <c r="C271">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B272" t="s">
+        <v>157</v>
+      </c>
+      <c r="C272">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B273" t="s">
+        <v>196</v>
+      </c>
+      <c r="C273">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B274" t="s">
+        <v>156</v>
+      </c>
+      <c r="C274">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B275" t="s">
+        <v>176</v>
+      </c>
+      <c r="C275">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B276" t="s">
+        <v>184</v>
+      </c>
+      <c r="C276">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B277" t="s">
+        <v>153</v>
+      </c>
+      <c r="C277">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B278" t="s">
+        <v>160</v>
+      </c>
+      <c r="C278">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B279" t="s">
+        <v>158</v>
+      </c>
+      <c r="C279">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B280" t="s">
+        <v>154</v>
+      </c>
+      <c r="C280">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B281" t="s">
+        <v>164</v>
+      </c>
+      <c r="C281">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B282" t="s">
+        <v>193</v>
+      </c>
+      <c r="C282">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B283" t="s">
+        <v>190</v>
+      </c>
+      <c r="C283">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B284" t="s">
+        <v>163</v>
+      </c>
+      <c r="C284">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B285" t="s">
+        <v>175</v>
+      </c>
+      <c r="C285">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B286" t="s">
+        <v>159</v>
+      </c>
+      <c r="C286">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B287" t="s">
+        <v>165</v>
+      </c>
+      <c r="C287">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B288" t="s">
+        <v>182</v>
+      </c>
+      <c r="C288">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B289" t="s">
+        <v>171</v>
+      </c>
+      <c r="C289">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B290" t="s">
+        <v>186</v>
+      </c>
+      <c r="C290">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B291" t="s">
+        <v>174</v>
+      </c>
+      <c r="C291">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B292" t="s">
+        <v>150</v>
+      </c>
+      <c r="C292">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B293" t="s">
+        <v>166</v>
+      </c>
+      <c r="C293">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B294" t="s">
+        <v>191</v>
+      </c>
+      <c r="C294">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B295" t="s">
+        <v>152</v>
+      </c>
+      <c r="C295">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B296" t="s">
+        <v>189</v>
+      </c>
+      <c r="C296">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B297" t="s">
+        <v>192</v>
+      </c>
+      <c r="C297">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B298" t="s">
+        <v>161</v>
+      </c>
+      <c r="C298">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B299" t="s">
+        <v>197</v>
+      </c>
+      <c r="C299">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B300" t="s">
+        <v>173</v>
+      </c>
+      <c r="C300">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B301" t="s">
+        <v>151</v>
+      </c>
+      <c r="C301">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B302" t="s">
+        <v>167</v>
+      </c>
+      <c r="C302">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B303" t="s">
+        <v>149</v>
+      </c>
+      <c r="C303">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B304" t="s">
+        <v>177</v>
+      </c>
+      <c r="C304">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B305" t="s">
+        <v>185</v>
+      </c>
+      <c r="C305">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B306" t="s">
+        <v>180</v>
+      </c>
+      <c r="C306">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A256:B306">
+    <sortCondition ref="A256:A306"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>